--- a/content/docs/course/specification_tables_dprep.xlsx
+++ b/content/docs/course/specification_tables_dprep.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdatta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tilburgu-my.sharepoint.com/personal/h_datta_tilburguniversity_edu/Documents/Teaching/dprep-08-fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F7BD08-40A6-4FED-862B-2B24516424BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{25F7BD08-40A6-4FED-862B-2B24516424BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E92740-340A-44A7-AF67-688613568FF9}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="0" windowWidth="27330" windowHeight="15465" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exam (50%)" sheetId="1" r:id="rId1"/>
-    <sheet name="Team assignments (50%)" sheetId="2" r:id="rId2"/>
+    <sheet name="Exam (60%)" sheetId="1" r:id="rId1"/>
+    <sheet name="Team assignments (40%)" sheetId="2" r:id="rId2"/>
     <sheet name="Explanation skills" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Exam (50%)'!$A$1:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Team assignments (50%)'!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Exam (60%)'!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Team assignments (40%)'!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Specification table</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Course code:</t>
   </si>
   <si>
-    <t>328059-M3 (fall, block 3) and 328062-M3 (spring, block 1)</t>
-  </si>
-  <si>
     <t>Course name:</t>
   </si>
   <si>
@@ -253,12 +250,6 @@
     <t>Cognitive skills</t>
   </si>
   <si>
-    <t>Tested with MC &amp; open questions (randomized, personalized, and cannot go back and forth between subsequent questions)</t>
-  </si>
-  <si>
-    <t>Tested with open questions (personalized, can freely go back between questions)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tested subjects (corresponding learning goal*). student are able to </t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>Number of questions/ percentage score points per learning goal</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Number of questions/ percentage score points per thinking skill</t>
   </si>
   <si>
@@ -355,20 +343,23 @@
     <t>Use Workflow Management Tools to create and run portable, automated, and reproducible data pipelines</t>
   </si>
   <si>
-    <t>Computer exam (50%), open and closed questions</t>
-  </si>
-  <si>
-    <t>Team assignment (50%; 10% individual component assessed via self- and peer assessment)</t>
+    <t>Use Workflow Management Tools to create and run portable, automated, and reproducible research pipelines</t>
+  </si>
+  <si>
+    <t>Computer exam (60%), open and closed questions</t>
+  </si>
+  <si>
+    <t>328059-M3 (fall, block 1; spring, block 3)</t>
+  </si>
+  <si>
+    <t>Team assignment (40%; 8% individual component assessed via self- and peer assessment)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -429,6 +420,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -444,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -561,30 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -613,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -648,13 +621,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,17 +640,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,11 +649,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -703,17 +664,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,58 +765,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>425875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>295102</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10659856" y="569251"/>
-          <a:ext cx="6143448" cy="5422356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -890,7 +806,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -996,7 +912,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1138,7 +1054,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1149,11 +1065,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,28 +1078,28 @@
     <col min="10" max="1024" width="20.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1194,14 +1108,14 @@
       <c r="I2" s="9"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1210,14 +1124,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1226,244 +1140,238 @@
       <c r="I4" s="14"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="89.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:1024" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="23">
+        <f>SUM(C7:H7)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:1024" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23">
+        <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:1024" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:1024" ht="57" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:1024" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:1024" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+      <c r="C12" s="33">
+        <f>SUM(C7:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" ref="D12:H12" si="1">SUM(D7:D11)</f>
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="21">
+        <f>SUM(I7:I11)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D13" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="22">
-        <f>SUM(I8:I12)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="21"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="AMG14"/>
+      <c r="AMH14"/>
+      <c r="AMI14"/>
+      <c r="AMJ14"/>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="AMG15"/>
+      <c r="AMH15"/>
+      <c r="AMI15"/>
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="AMG16"/>
+      <c r="AMH16"/>
+      <c r="AMI16"/>
+      <c r="AMJ16"/>
+    </row>
+    <row r="17" spans="1021:1024" x14ac:dyDescent="0.25">
+      <c r="AMG17"/>
+      <c r="AMH17"/>
+      <c r="AMI17"/>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1021:1024" x14ac:dyDescent="0.25">
+      <c r="AMG18"/>
+      <c r="AMH18"/>
+      <c r="AMI18"/>
+      <c r="AMJ18"/>
+    </row>
+    <row r="19" spans="1021:1024" x14ac:dyDescent="0.25">
+      <c r="AMG19"/>
+      <c r="AMH19"/>
+      <c r="AMI19"/>
+      <c r="AMJ19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="98" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1474,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,15 +1398,15 @@
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,8 +1416,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>'Exam (50%)'!D2</f>
-        <v>328059-M3 (fall, block 3) and 328062-M3 (spring, block 1)</v>
+        <f>'Exam (60%)'!D2</f>
+        <v>328059-M3 (fall, block 1; spring, block 3)</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1522,10 +1430,10 @@
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>'Exam (50%)'!D3</f>
+        <f>'Exam (60%)'!D3</f>
         <v>Data Preparation &amp; Workflow Management</v>
       </c>
       <c r="E3" s="7"/>
@@ -1539,10 +1447,10 @@
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1554,188 +1462,182 @@
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="29">
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="25">
         <f t="shared" ref="I7:I11" si="0">SUM(C7:H7)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>2</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="29">
+      <c r="B8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="25">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28">
+      <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="24">
         <v>0.2</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="29">
+      <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>4</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="I10" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>5</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="29">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="22">
-        <f>SUM(C7:C11)</f>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" ref="C12:I12" si="1">SUM(C7:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="22">
-        <f>SUM(D7:D11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="22">
-        <f>SUM(E7:E11)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="22">
-        <f>SUM(F7:F11)</f>
+      <c r="D12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="G12" s="22">
-        <f>SUM(G7:G11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="22">
-        <f>SUM(H7:H11)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="36">
-        <f>SUM(I7:I11)</f>
-        <v>1.0000000000000002</v>
+      <c r="F12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="I12" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -1765,80 +1667,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="34" t="s">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
